--- a/preprocessing data/2012-2014.xlsx
+++ b/preprocessing data/2012-2014.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataVS\final_lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataVS\final_lab\preprocessing data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7606B0AB-E3A8-4EB9-87F9-379039EA5C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F92B4D5-E14C-4956-B754-6E4154F51472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="136">
   <si>
     <t>Đồng bằng sông Hồng</t>
   </si>
@@ -422,15 +422,6 @@
     <t>141. 0</t>
   </si>
   <si>
-    <t>Diện tích cây lương thực</t>
-  </si>
-  <si>
-    <t>Tình thành</t>
-  </si>
-  <si>
-    <t>Sản lượng cây lương thực</t>
-  </si>
-  <si>
     <t>..</t>
   </si>
   <si>
@@ -450,6 +441,9 @@
   </si>
   <si>
     <t>Sản lượng lương thực có hạt bình quân đầu người</t>
+  </si>
+  <si>
+    <t>Tỉnh thành</t>
   </si>
 </sst>
 </file>
@@ -599,9 +593,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4C0C879-0BAD-4D7D-AB5E-DDB463F87C25}" name="Table1" displayName="Table1" ref="A1:S72" totalsRowShown="0">
   <autoFilter ref="A1:S72" xr:uid="{B3808867-3558-4F29-82D4-654E44656D9A}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{4CC28C0C-7BEC-4E1A-B3A9-153BA962A5B2}" name="Tình thành"/>
-    <tableColumn id="2" xr3:uid="{A2C3D3B5-D8C4-4E14-873F-8C7DF7CF25F8}" name="Diện tích cây lương thực"/>
-    <tableColumn id="20" xr3:uid="{8DD9CB1F-CF0F-4ECC-9D3A-E5E921D400B1}" name="Sản lượng cây lương thực"/>
+    <tableColumn id="1" xr3:uid="{4CC28C0C-7BEC-4E1A-B3A9-153BA962A5B2}" name="Tỉnh thành"/>
+    <tableColumn id="2" xr3:uid="{A2C3D3B5-D8C4-4E14-873F-8C7DF7CF25F8}" name="Diện tích cây lương thực có hạt"/>
+    <tableColumn id="20" xr3:uid="{8DD9CB1F-CF0F-4ECC-9D3A-E5E921D400B1}" name="Sản lượng cây lương thực có hạt"/>
     <tableColumn id="3" xr3:uid="{CAC35750-6760-47C4-A1B9-910C2315DBA6}" name="Diện tích lúa"/>
     <tableColumn id="4" xr3:uid="{769ECC7A-1397-4DB4-ADA0-D5EABC3A9D2F}" name="Năng suất lúa"/>
     <tableColumn id="5" xr3:uid="{238209D3-B791-4C8E-AD7F-7698F6A13D39}" name="Sản lượng lúa"/>
@@ -627,7 +621,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAB33B69-D72E-484D-81C7-DC709B2AA673}" name="Table13" displayName="Table13" ref="A1:W71" totalsRowShown="0">
   <autoFilter ref="A1:W71" xr:uid="{D6162D2C-0F30-4AFD-8910-E3FF1AEBE6C1}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{F31FA9D7-21B9-4B55-A414-F2B53FE95202}" name="Tình thành"/>
+    <tableColumn id="1" xr3:uid="{F31FA9D7-21B9-4B55-A414-F2B53FE95202}" name="Tỉnh thành"/>
     <tableColumn id="2" xr3:uid="{27DCCA94-66C0-43F1-B3AE-B473E4E3AC3D}" name="Diện tích cây lương thực có hạt"/>
     <tableColumn id="19" xr3:uid="{3681B63D-C947-4C3C-998C-1BA239AD57E0}" name="Sản lượng cây lương thực có hạt"/>
     <tableColumn id="20" xr3:uid="{66EA4BA3-95FE-494F-BB90-946093FA93A9}" name="Sản lượng lương thực có hạt bình quân đầu người"/>
@@ -659,7 +653,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45D3ACC5-9FD8-496B-922E-4DF1AE84AB8D}" name="Table134" displayName="Table134" ref="A1:W71" totalsRowShown="0">
   <autoFilter ref="A1:W71" xr:uid="{E7513C77-161E-431C-8FE3-D9CE3A6E1B6F}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{0BBF407E-4F10-4E33-B311-92D5A5823571}" name="Tình thành"/>
+    <tableColumn id="1" xr3:uid="{0BBF407E-4F10-4E33-B311-92D5A5823571}" name="Tỉnh thành"/>
     <tableColumn id="2" xr3:uid="{E85410BF-8F59-4345-AA92-64458BE725E2}" name="Diện tích cây lương thực có hạt"/>
     <tableColumn id="19" xr3:uid="{BEDFB693-D52E-4F72-B71A-760CC8B09DD5}" name="Sản lượng cây lương thực có hạt"/>
     <tableColumn id="20" xr3:uid="{9919E101-12C4-4C3A-80C6-1AC0B6DA8C16}" name="Sản lượng lương thực có hạt bình quân đầu người"/>
@@ -691,7 +685,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{131EF86C-3306-4D73-82FC-B734A911BA6B}" name="Table135" displayName="Table135" ref="A1:W71" totalsRowShown="0">
   <autoFilter ref="A1:W71" xr:uid="{243456DA-45FD-484B-8C70-D9BB5FDBEAEF}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{2A50C2F0-E187-4519-8AAE-ADF2FFB2F8BD}" name="Tình thành"/>
+    <tableColumn id="1" xr3:uid="{2A50C2F0-E187-4519-8AAE-ADF2FFB2F8BD}" name="Tỉnh thành"/>
     <tableColumn id="2" xr3:uid="{05A5D74B-54EA-4505-AE62-F89B4983B3B2}" name="Diện tích cây lương thực có hạt"/>
     <tableColumn id="19" xr3:uid="{C2025F07-C3FA-4141-AF10-91066DEA1E52}" name="Sản lượng cây lương thực có hạt"/>
     <tableColumn id="23" xr3:uid="{0074EC31-E31F-458A-8038-A9C7F733E24F}" name="Sản lượng lương thực có hạt bình quân đầu người"/>
@@ -985,7 +979,7 @@
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B72"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1012,13 +1006,13 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -4702,8 +4696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD130027-EA59-49D6-9600-6DC0BE9DAE86}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4733,16 +4727,16 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -4772,13 +4766,13 @@
         <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q1" t="s">
         <v>79</v>
@@ -9248,7 +9242,7 @@
   <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9277,16 +9271,16 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -9316,13 +9310,13 @@
         <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q1" t="s">
         <v>79</v>
@@ -13792,7 +13786,7 @@
   <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13822,16 +13816,16 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -13861,13 +13855,13 @@
         <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q1" t="s">
         <v>79</v>
@@ -16078,13 +16072,13 @@
         <v>18.899999999999999</v>
       </c>
       <c r="K37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N37" s="1">
         <v>2.5</v>
@@ -16143,13 +16137,13 @@
         <v>247.7</v>
       </c>
       <c r="K38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N38" s="1">
         <v>43.8</v>
@@ -17633,13 +17627,13 @@
         <v>812.8</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -17828,13 +17822,13 @@
         <v>651.29999999999995</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q63">
         <v>1.1000000000000001</v>
@@ -17899,13 +17893,13 @@
         <v>1803</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q64">
         <v>4.7</v>
@@ -18106,13 +18100,13 @@
         <v>721.6</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -18171,13 +18165,13 @@
         <v>621.9</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q68">
         <v>2.7</v>
@@ -18348,13 +18342,13 @@
         <v>552</v>
       </c>
       <c r="H71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K71">
         <v>36.700000000000003</v>
